--- a/KJK/2021/jarmumernok.xlsx
+++ b/KJK/2021/jarmumernok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Web\BME Tanterv\bme_tanterv\KJK\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F805A24F-BB2A-45FF-BBB1-A8B3406F4FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A081183-44D2-45D1-823E-BDD29293974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2F9964EF-AD2B-4E6F-94D5-8359FF018EB0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="367">
   <si>
     <t>Tárgy neve</t>
   </si>
@@ -1118,6 +1118,9 @@
   </si>
   <si>
     <t>!</t>
+  </si>
+  <si>
+    <t>KOGJA511,</t>
   </si>
 </sst>
 </file>
@@ -1980,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976DA2C7-32E2-4E64-9E22-8228FCBC4037}">
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,7 +3609,7 @@
         <v>114</v>
       </c>
       <c r="K46" t="s">
-        <v>15</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">

--- a/KJK/2021/jarmumernok.xlsx
+++ b/KJK/2021/jarmumernok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Web\BME Tanterv\bme_tanterv\KJK\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A081183-44D2-45D1-823E-BDD29293974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7DCE1EC-D1F9-4305-A7A9-4AE74E635563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2F9964EF-AD2B-4E6F-94D5-8359FF018EB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{11A2C020-6FF9-4290-B434-A749B71FF4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="jarmumernok" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
     <t>Félévközi jegy</t>
   </si>
   <si>
-    <t>Mérnöki alapismeretek</t>
+    <t>Mérnöki alapismeretek / Mérnöki alapok</t>
   </si>
   <si>
     <t>KOVRA190</t>
@@ -307,7 +307,7 @@
     <t>KOKAA138</t>
   </si>
   <si>
-    <t>KOKAA146,KOKAA139~,TE90AX53$,</t>
+    <t>KOKAA139~,TE90AX53$,</t>
   </si>
   <si>
     <t>Szabadon választható 3</t>
@@ -379,6 +379,9 @@
     <t>KOGJA512</t>
   </si>
   <si>
+    <t>KOGJA511,</t>
+  </si>
+  <si>
     <t>Gépjármű futóművek II.</t>
   </si>
   <si>
@@ -1118,9 +1121,6 @@
   </si>
   <si>
     <t>!</t>
-  </si>
-  <si>
-    <t>KOGJA511,</t>
   </si>
 </sst>
 </file>
@@ -1980,11 +1980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976DA2C7-32E2-4E64-9E22-8228FCBC4037}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F0F71F-3DF9-48D0-BBE2-5DBD25DE6E5F}">
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E137" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,15 +3609,15 @@
         <v>114</v>
       </c>
       <c r="K46" t="s">
-        <v>366</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -3644,15 +3644,15 @@
         <v>114</v>
       </c>
       <c r="K47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -3679,15 +3679,15 @@
         <v>114</v>
       </c>
       <c r="K48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -3714,15 +3714,15 @@
         <v>114</v>
       </c>
       <c r="K49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -3749,15 +3749,15 @@
         <v>114</v>
       </c>
       <c r="K50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -3784,15 +3784,15 @@
         <v>114</v>
       </c>
       <c r="K51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3819,15 +3819,15 @@
         <v>114</v>
       </c>
       <c r="K52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -3854,15 +3854,15 @@
         <v>114</v>
       </c>
       <c r="K53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -3886,18 +3886,18 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -3921,7 +3921,7 @@
         <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K55" t="s">
         <v>15</v>
@@ -3929,10 +3929,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -3956,18 +3956,18 @@
         <v>5</v>
       </c>
       <c r="J56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -3991,18 +3991,18 @@
         <v>5</v>
       </c>
       <c r="J57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -4026,18 +4026,18 @@
         <v>5</v>
       </c>
       <c r="J58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59">
         <v>8</v>
@@ -4061,18 +4061,18 @@
         <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -4096,18 +4096,18 @@
         <v>6</v>
       </c>
       <c r="J60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -4131,18 +4131,18 @@
         <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -4166,18 +4166,18 @@
         <v>7</v>
       </c>
       <c r="J62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -4201,18 +4201,18 @@
         <v>7</v>
       </c>
       <c r="J63" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -4236,18 +4236,18 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K64" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -4271,7 +4271,7 @@
         <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K65" t="s">
         <v>69</v>
@@ -4279,10 +4279,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -4306,18 +4306,18 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -4341,18 +4341,18 @@
         <v>5</v>
       </c>
       <c r="J67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -4376,18 +4376,18 @@
         <v>5</v>
       </c>
       <c r="J68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C69">
         <v>8</v>
@@ -4411,7 +4411,7 @@
         <v>6</v>
       </c>
       <c r="J69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K69" t="s">
         <v>15</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -4446,18 +4446,18 @@
         <v>6</v>
       </c>
       <c r="J70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -4481,18 +4481,18 @@
         <v>6</v>
       </c>
       <c r="J71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -4516,18 +4516,18 @@
         <v>7</v>
       </c>
       <c r="J72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -4551,18 +4551,18 @@
         <v>7</v>
       </c>
       <c r="J73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -4586,7 +4586,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K74" t="s">
         <v>15</v>
@@ -4594,34 +4594,34 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75" t="s">
         <v>194</v>
-      </c>
-      <c r="B75" t="s">
-        <v>195</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75">
-        <v>4</v>
-      </c>
-      <c r="J75" t="s">
-        <v>193</v>
       </c>
       <c r="K75" t="s">
         <v>15</v>
@@ -4629,10 +4629,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
       <c r="J76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K76" t="s">
         <v>15</v>
@@ -4664,10 +4664,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -4691,18 +4691,18 @@
         <v>5</v>
       </c>
       <c r="J77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -4726,7 +4726,7 @@
         <v>5</v>
       </c>
       <c r="J78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K78" t="s">
         <v>15</v>
@@ -4734,10 +4734,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -4761,18 +4761,18 @@
         <v>6</v>
       </c>
       <c r="J79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -4796,18 +4796,18 @@
         <v>6</v>
       </c>
       <c r="J80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K80" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B81" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -4831,18 +4831,18 @@
         <v>6</v>
       </c>
       <c r="J81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -4866,18 +4866,18 @@
         <v>6</v>
       </c>
       <c r="J82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -4901,7 +4901,7 @@
         <v>7</v>
       </c>
       <c r="J83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K83" t="s">
         <v>15</v>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -4936,7 +4936,7 @@
         <v>7</v>
       </c>
       <c r="J84" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K84" t="s">
         <v>15</v>
@@ -4944,10 +4944,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C85">
         <v>8</v>
@@ -4971,7 +4971,7 @@
         <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K85" t="s">
         <v>65</v>
@@ -4979,10 +4979,10 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -5006,18 +5006,18 @@
         <v>5</v>
       </c>
       <c r="J86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C87">
         <v>7</v>
@@ -5041,7 +5041,7 @@
         <v>5</v>
       </c>
       <c r="J87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K87" t="s">
         <v>79</v>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -5076,7 +5076,7 @@
         <v>5</v>
       </c>
       <c r="J88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K88" t="s">
         <v>65</v>
@@ -5084,10 +5084,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C89">
         <v>13</v>
@@ -5111,18 +5111,18 @@
         <v>6</v>
       </c>
       <c r="J89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B90" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -5146,18 +5146,18 @@
         <v>6</v>
       </c>
       <c r="J90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -5181,7 +5181,7 @@
         <v>7</v>
       </c>
       <c r="J91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K91" t="s">
         <v>15</v>
@@ -5189,10 +5189,10 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -5216,18 +5216,18 @@
         <v>7</v>
       </c>
       <c r="J92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -5251,18 +5251,18 @@
         <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -5286,7 +5286,7 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K94" t="s">
         <v>15</v>
@@ -5294,10 +5294,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B95" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -5321,7 +5321,7 @@
         <v>5</v>
       </c>
       <c r="J95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K95" t="s">
         <v>15</v>
@@ -5329,10 +5329,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C96">
         <v>6</v>
@@ -5356,18 +5356,18 @@
         <v>5</v>
       </c>
       <c r="J96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B97" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -5391,18 +5391,18 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -5426,18 +5426,18 @@
         <v>6</v>
       </c>
       <c r="J98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K98" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -5461,7 +5461,7 @@
         <v>6</v>
       </c>
       <c r="J99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K99" t="s">
         <v>15</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -5496,18 +5496,18 @@
         <v>6</v>
       </c>
       <c r="J100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B101" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -5531,7 +5531,7 @@
         <v>6</v>
       </c>
       <c r="J101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K101" t="s">
         <v>15</v>
@@ -5539,10 +5539,10 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -5566,7 +5566,7 @@
         <v>6</v>
       </c>
       <c r="J102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K102" t="s">
         <v>15</v>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -5601,7 +5601,7 @@
         <v>7</v>
       </c>
       <c r="J103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K103" t="s">
         <v>15</v>
@@ -5609,10 +5609,10 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -5636,18 +5636,18 @@
         <v>7</v>
       </c>
       <c r="J104" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K104" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -5671,7 +5671,7 @@
         <v>4</v>
       </c>
       <c r="J105" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K105" t="s">
         <v>53</v>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B106" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -5706,7 +5706,7 @@
         <v>4</v>
       </c>
       <c r="J106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K106" t="s">
         <v>53</v>
@@ -5714,10 +5714,10 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B107" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -5741,18 +5741,18 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K107" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B108" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -5776,18 +5776,18 @@
         <v>5</v>
       </c>
       <c r="J108" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K108" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B109" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -5811,18 +5811,18 @@
         <v>5</v>
       </c>
       <c r="J109" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K109" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B110" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -5846,18 +5846,18 @@
         <v>6</v>
       </c>
       <c r="J110" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K110" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B111" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C111">
         <v>5</v>
@@ -5881,18 +5881,18 @@
         <v>6</v>
       </c>
       <c r="J111" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K111" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B112" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -5916,18 +5916,18 @@
         <v>6</v>
       </c>
       <c r="J112" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K112" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B113" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -5951,18 +5951,18 @@
         <v>6</v>
       </c>
       <c r="J113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B114" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -5986,18 +5986,18 @@
         <v>6</v>
       </c>
       <c r="J114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K114" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B115" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -6021,18 +6021,18 @@
         <v>7</v>
       </c>
       <c r="J115" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K115" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B116" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -6056,18 +6056,18 @@
         <v>7</v>
       </c>
       <c r="J116" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K116" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B117" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C117">
         <v>4</v>
@@ -6091,7 +6091,7 @@
         <v>4</v>
       </c>
       <c r="J117" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K117" t="s">
         <v>53</v>
@@ -6099,34 +6099,34 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>303</v>
+      </c>
+      <c r="B118" t="s">
+        <v>304</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>22</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118" t="s">
         <v>302</v>
-      </c>
-      <c r="B118" t="s">
-        <v>303</v>
-      </c>
-      <c r="C118">
-        <v>4</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
-        <v>2</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118" t="s">
-        <v>22</v>
-      </c>
-      <c r="I118">
-        <v>4</v>
-      </c>
-      <c r="J118" t="s">
-        <v>301</v>
       </c>
       <c r="K118" t="s">
         <v>15</v>
@@ -6134,10 +6134,10 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B119" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -6161,7 +6161,7 @@
         <v>5</v>
       </c>
       <c r="J119" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K119" t="s">
         <v>15</v>
@@ -6169,10 +6169,10 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B120" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C120">
         <v>5</v>
@@ -6196,7 +6196,7 @@
         <v>5</v>
       </c>
       <c r="J120" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K120" t="s">
         <v>15</v>
@@ -6204,10 +6204,10 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B121" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -6231,18 +6231,18 @@
         <v>5</v>
       </c>
       <c r="J121" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K121" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B122" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C122">
         <v>7</v>
@@ -6266,18 +6266,18 @@
         <v>6</v>
       </c>
       <c r="J122" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K122" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B123" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -6301,7 +6301,7 @@
         <v>6</v>
       </c>
       <c r="J123" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K123" t="s">
         <v>15</v>
@@ -6309,10 +6309,10 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B124" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -6336,18 +6336,18 @@
         <v>6</v>
       </c>
       <c r="J124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K124" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B125" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -6371,7 +6371,7 @@
         <v>7</v>
       </c>
       <c r="J125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K125" t="s">
         <v>15</v>
@@ -6379,10 +6379,10 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B126" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -6406,7 +6406,7 @@
         <v>7</v>
       </c>
       <c r="J126" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K126" t="s">
         <v>15</v>
@@ -6414,10 +6414,10 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B127" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C127">
         <v>4</v>
@@ -6441,7 +6441,7 @@
         <v>4</v>
       </c>
       <c r="J127" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K127" t="s">
         <v>53</v>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B128" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C128">
         <v>4</v>
@@ -6476,7 +6476,7 @@
         <v>4</v>
       </c>
       <c r="J128" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K128" t="s">
         <v>15</v>
@@ -6484,10 +6484,10 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B129" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -6511,7 +6511,7 @@
         <v>5</v>
       </c>
       <c r="J129" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K129" t="s">
         <v>15</v>
@@ -6519,10 +6519,10 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B130" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -6546,7 +6546,7 @@
         <v>5</v>
       </c>
       <c r="J130" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K130" t="s">
         <v>53</v>
@@ -6554,10 +6554,10 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B131" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -6581,18 +6581,18 @@
         <v>5</v>
       </c>
       <c r="J131" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K131" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B132" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C132">
         <v>7</v>
@@ -6616,18 +6616,18 @@
         <v>6</v>
       </c>
       <c r="J132" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K132" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B133" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -6651,7 +6651,7 @@
         <v>6</v>
       </c>
       <c r="J133" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K133" t="s">
         <v>15</v>
@@ -6659,10 +6659,10 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -6686,18 +6686,18 @@
         <v>6</v>
       </c>
       <c r="J134" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K134" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B135" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -6721,7 +6721,7 @@
         <v>7</v>
       </c>
       <c r="J135" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K135" t="s">
         <v>15</v>
@@ -6729,10 +6729,10 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B136" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -6756,18 +6756,18 @@
         <v>7</v>
       </c>
       <c r="J136" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K136" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B137" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -6791,7 +6791,7 @@
         <v>4</v>
       </c>
       <c r="J137" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K137" t="s">
         <v>15</v>
@@ -6799,10 +6799,10 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B138" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C138">
         <v>5</v>
@@ -6826,7 +6826,7 @@
         <v>4</v>
       </c>
       <c r="J138" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K138" t="s">
         <v>53</v>
@@ -6834,10 +6834,10 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B139" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C139">
         <v>4</v>
@@ -6861,7 +6861,7 @@
         <v>5</v>
       </c>
       <c r="J139" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K139" t="s">
         <v>15</v>
@@ -6869,10 +6869,10 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B140" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C140">
         <v>5</v>
@@ -6896,7 +6896,7 @@
         <v>5</v>
       </c>
       <c r="J140" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K140" t="s">
         <v>15</v>
@@ -6904,10 +6904,10 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B141" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C141">
         <v>4</v>
@@ -6931,7 +6931,7 @@
         <v>5</v>
       </c>
       <c r="J141" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K141" t="s">
         <v>15</v>
@@ -6939,10 +6939,10 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B142" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C142">
         <v>8</v>
@@ -6966,18 +6966,18 @@
         <v>6</v>
       </c>
       <c r="J142" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K142" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B143" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C143">
         <v>4</v>
@@ -7001,18 +7001,18 @@
         <v>6</v>
       </c>
       <c r="J143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K143" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B144" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -7036,18 +7036,18 @@
         <v>6</v>
       </c>
       <c r="J144" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K144" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B145" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -7071,18 +7071,18 @@
         <v>7</v>
       </c>
       <c r="J145" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K145" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B146" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C146">
         <v>4</v>
@@ -7106,39 +7106,39 @@
         <v>7</v>
       </c>
       <c r="J146" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K146" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B148" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B149" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B150" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
